--- a/generation/fuelwise_generation_MkWh.xlsx
+++ b/generation/fuelwise_generation_MkWh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my_works\python\NDT_MOD_v_11\generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D7F49A-82D7-486E-90F3-B2DC450F715E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E83306-AE12-4A18-BD08-0DDA96CAE22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,25 +16,12 @@
     <sheet name="hourly_gen" sheetId="1" r:id="rId1"/>
     <sheet name="yearly_gen" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -68,25 +55,15 @@
   <si>
     <t>year</t>
   </si>
-  <si>
-    <t>Total Gen</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Total_Gen_MkWh</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,19 +75,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,11 +109,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -157,15 +120,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -208,7 +166,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -236,7 +194,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>yearly_gen!$B$2</c:f>
+              <c:f>yearly_gen!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -246,55 +204,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>yearly_gen!$A$3:$A$9</c:f>
+              <c:f>yearly_gen!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -324,7 +245,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>yearly_gen!$B$3:$B$9</c:f>
+              <c:f>yearly_gen!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -354,7 +275,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7309-4D32-8DEC-008BD78A9EB0}"/>
+              <c16:uniqueId val="{00000000-93C5-45F2-BB84-64885374747F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -363,7 +284,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>yearly_gen!$C$2</c:f>
+              <c:f>yearly_gen!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -373,50 +294,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent2">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -476,23 +360,9 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="movingAvg"/>
-            <c:period val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>yearly_gen!$A$3:$A$9</c:f>
+              <c:f>yearly_gen!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -522,7 +392,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>yearly_gen!$C$3:$C$9</c:f>
+              <c:f>yearly_gen!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -552,7 +422,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7309-4D32-8DEC-008BD78A9EB0}"/>
+              <c16:uniqueId val="{00000001-93C5-45F2-BB84-64885374747F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -561,7 +431,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>yearly_gen!$D$2</c:f>
+              <c:f>yearly_gen!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -571,273 +441,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent3">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.7397260273972601E-2"/>
-                  <c:y val="-2.0763814067402284E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-7309-4D32-8DEC-008BD78A9EB0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.1963470319634674E-2"/>
-                  <c:y val="-1.1865036609944162E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-7309-4D32-8DEC-008BD78A9EB0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.8264840182648401E-2"/>
-                  <c:y val="-8.8987774574581218E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-7309-4D32-8DEC-008BD78A9EB0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.1963470319634701E-2"/>
-                  <c:y val="-4.4493887287290604E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-7309-4D32-8DEC-008BD78A9EB0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.5875190258751901E-2"/>
-                  <c:y val="-4.4493887287290604E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-7309-4D32-8DEC-008BD78A9EB0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.435312024353109E-2"/>
-                  <c:y val="-2.0763814067402391E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-7309-4D32-8DEC-008BD78A9EB0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.348554033485529E-2"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-7309-4D32-8DEC-008BD78A9EB0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="movingAvg"/>
-            <c:period val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>yearly_gen!$A$3:$A$9</c:f>
+              <c:f>yearly_gen!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -867,7 +482,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>yearly_gen!$D$3:$D$9</c:f>
+              <c:f>yearly_gen!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -897,7 +512,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7309-4D32-8DEC-008BD78A9EB0}"/>
+              <c16:uniqueId val="{00000002-93C5-45F2-BB84-64885374747F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -906,7 +521,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>yearly_gen!$E$2</c:f>
+              <c:f>yearly_gen!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -916,55 +531,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent4">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>yearly_gen!$A$3:$A$9</c:f>
+              <c:f>yearly_gen!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -994,7 +572,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>yearly_gen!$E$3:$E$9</c:f>
+              <c:f>yearly_gen!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1024,7 +602,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7309-4D32-8DEC-008BD78A9EB0}"/>
+              <c16:uniqueId val="{00000003-93C5-45F2-BB84-64885374747F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1033,7 +611,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>yearly_gen!$F$2</c:f>
+              <c:f>yearly_gen!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1043,69 +621,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="movingAvg"/>
-            <c:period val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>yearly_gen!$A$3:$A$9</c:f>
+              <c:f>yearly_gen!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1135,7 +662,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>yearly_gen!$F$3:$F$9</c:f>
+              <c:f>yearly_gen!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1165,7 +692,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7309-4D32-8DEC-008BD78A9EB0}"/>
+              <c16:uniqueId val="{00000004-93C5-45F2-BB84-64885374747F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1174,7 +701,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>yearly_gen!$G$2</c:f>
+              <c:f>yearly_gen!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1184,55 +711,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent6">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>yearly_gen!$A$3:$A$9</c:f>
+              <c:f>yearly_gen!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1262,7 +752,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>yearly_gen!$G$3:$G$9</c:f>
+              <c:f>yearly_gen!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1292,7 +782,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7309-4D32-8DEC-008BD78A9EB0}"/>
+              <c16:uniqueId val="{00000005-93C5-45F2-BB84-64885374747F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1301,7 +791,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>yearly_gen!$H$2</c:f>
+              <c:f>yearly_gen!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1311,58 +801,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>yearly_gen!$A$3:$A$9</c:f>
+              <c:f>yearly_gen!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1392,7 +844,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>yearly_gen!$H$3:$H$9</c:f>
+              <c:f>yearly_gen!$H$2:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1422,7 +874,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-7309-4D32-8DEC-008BD78A9EB0}"/>
+              <c16:uniqueId val="{00000006-93C5-45F2-BB84-64885374747F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1431,7 +883,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>yearly_gen!$I$2</c:f>
+              <c:f>yearly_gen!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1441,58 +893,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>yearly_gen!$A$3:$A$9</c:f>
+              <c:f>yearly_gen!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1522,7 +936,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>yearly_gen!$I$3:$I$9</c:f>
+              <c:f>yearly_gen!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1552,7 +966,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-7309-4D32-8DEC-008BD78A9EB0}"/>
+              <c16:uniqueId val="{00000007-93C5-45F2-BB84-64885374747F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1564,13 +978,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="732555887"/>
-        <c:axId val="732552559"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="499994639"/>
+        <c:axId val="499995055"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="732555887"/>
+        <c:axId val="499994639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1582,7 +996,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1613,7 +1027,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="732552559"/>
+        <c:crossAx val="499995055"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1621,7 +1035,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="732552559"/>
+        <c:axId val="499995055"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1672,7 +1086,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="732555887"/>
+        <c:crossAx val="499994639"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1752,320 +1166,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>yearly_gen!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total_Gen_MkWh</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>yearly_gen!$A$3:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>yearly_gen!$J$3:$J$9</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>47332.421636999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60661.562692599997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67287.171445999993</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>74191.487064090004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>74504.087998360003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>83753.16865213</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>89285.848803689994</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-479D-458B-AF27-B313C93FFFA6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="734706079"/>
-        <c:axId val="734711903"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="734706079"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="734711903"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="734711903"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="734706079"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2106,550 +1206,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2757,11 +1315,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2772,11 +1325,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2808,9 +1356,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3168,23 +1713,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28E2F3C0-64A3-2A10-9495-01A50789CCE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85FDC1C4-8F13-1128-35C1-9181A1952476}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3197,42 +1742,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5C3FBA-3E3D-3051-CECF-E54FEED74AF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3526,7 +2035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2513"/>
+  <dimension ref="A1:K2516"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -91457,33 +89966,138 @@
         <v>44941</v>
       </c>
       <c r="B2513">
-        <v>0</v>
+        <v>24.695644999999999</v>
       </c>
       <c r="C2513">
-        <v>1.9999999999999999E-6</v>
+        <v>112.37090382</v>
       </c>
       <c r="D2513">
-        <v>3.6749999999999998E-2</v>
+        <v>32.238975000000003</v>
       </c>
       <c r="E2513">
-        <v>0</v>
+        <v>0.56796000000000002</v>
       </c>
       <c r="F2513">
-        <v>0</v>
+        <v>20.28509</v>
       </c>
       <c r="G2513">
-        <v>0</v>
+        <v>0.72432600000000003</v>
       </c>
       <c r="H2513">
-        <v>0</v>
+        <v>1.7935964799999999</v>
       </c>
       <c r="I2513">
-        <v>0</v>
+        <v>2.36544</v>
       </c>
       <c r="J2513">
-        <v>3.6752E-2</v>
+        <v>195.0419363</v>
       </c>
       <c r="K2513">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2514" s="2">
+        <v>44942</v>
+      </c>
+      <c r="B2514">
+        <v>22.732126999999998</v>
+      </c>
+      <c r="C2514">
+        <v>111.35257636999999</v>
+      </c>
+      <c r="D2514">
+        <v>32.2093232</v>
+      </c>
+      <c r="E2514">
+        <v>0.45216000000000001</v>
+      </c>
+      <c r="F2514">
+        <v>19.214545000000001</v>
+      </c>
+      <c r="G2514">
+        <v>0.70338000000000001</v>
+      </c>
+      <c r="H2514">
+        <v>1.5739171999999999</v>
+      </c>
+      <c r="I2514">
+        <v>2.41248</v>
+      </c>
+      <c r="J2514">
+        <v>190.65050876999999</v>
+      </c>
+      <c r="K2514">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2515" s="2">
+        <v>44943</v>
+      </c>
+      <c r="B2515">
+        <v>23.651367</v>
+      </c>
+      <c r="C2515">
+        <v>110.64001319</v>
+      </c>
+      <c r="D2515">
+        <v>34.423619000000002</v>
+      </c>
+      <c r="E2515">
+        <v>0.40416000000000002</v>
+      </c>
+      <c r="F2515">
+        <v>20.910544999999999</v>
+      </c>
+      <c r="G2515">
+        <v>0.71075999999999995</v>
+      </c>
+      <c r="H2515">
+        <v>1.61767824</v>
+      </c>
+      <c r="I2515">
+        <v>2.3856000000000002</v>
+      </c>
+      <c r="J2515">
+        <v>194.74374243</v>
+      </c>
+      <c r="K2515">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2516" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B2516">
+        <v>0</v>
+      </c>
+      <c r="C2516">
+        <v>0</v>
+      </c>
+      <c r="D2516">
+        <v>0</v>
+      </c>
+      <c r="E2516">
+        <v>0</v>
+      </c>
+      <c r="F2516">
+        <v>0</v>
+      </c>
+      <c r="G2516">
+        <v>0</v>
+      </c>
+      <c r="H2516">
+        <v>0</v>
+      </c>
+      <c r="I2516">
+        <v>0</v>
+      </c>
+      <c r="J2516">
+        <v>0</v>
+      </c>
+      <c r="K2516">
         <v>2023</v>
       </c>
     </row>
@@ -91494,639 +90108,304 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>11</v>
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>13</v>
+      <c r="A2" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1015.074413</v>
+      </c>
+      <c r="C2" s="3">
+        <v>31560.778245000001</v>
+      </c>
+      <c r="D2" s="3">
+        <v>8478.3425979999993</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2062.220339</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3064.653515</v>
+      </c>
+      <c r="G2" s="3">
+        <v>744.70824800000003</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>406.64427899999998</v>
+      </c>
+      <c r="J2">
+        <v>47332.421636999999</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B3" s="3">
-        <v>1015.074413</v>
+        <v>1111.035052</v>
       </c>
       <c r="C3" s="3">
-        <v>31560.778245000001</v>
+        <v>39868.697747600003</v>
       </c>
       <c r="D3" s="3">
-        <v>8478.3425979999993</v>
+        <v>10882.853454</v>
       </c>
       <c r="E3" s="3">
-        <v>2062.220339</v>
+        <v>2992.3467679999999</v>
       </c>
       <c r="F3" s="3">
-        <v>3064.653515</v>
+        <v>3896.2458120000001</v>
       </c>
       <c r="G3" s="3">
-        <v>744.70824800000003</v>
+        <v>1029.528088</v>
       </c>
       <c r="H3" s="3">
-        <v>0</v>
+        <v>0.45138299999999998</v>
       </c>
       <c r="I3" s="3">
-        <v>406.64427899999998</v>
-      </c>
-      <c r="J3" s="3">
-        <v>47332.421636999999</v>
+        <v>880.40438800000004</v>
+      </c>
+      <c r="J3">
+        <v>60661.562692599997</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B4" s="3">
-        <v>1111.035052</v>
+        <v>1840.9681189999999</v>
       </c>
       <c r="C4" s="3">
-        <v>39868.697747600003</v>
+        <v>45456.184500000003</v>
       </c>
       <c r="D4" s="3">
-        <v>10882.853454</v>
+        <v>11573.872600000001</v>
       </c>
       <c r="E4" s="3">
-        <v>2992.3467679999999</v>
+        <v>2337.5677519999999</v>
       </c>
       <c r="F4" s="3">
-        <v>3896.2458120000001</v>
+        <v>4196.5621179999998</v>
       </c>
       <c r="G4" s="3">
-        <v>1029.528088</v>
+        <v>865.27033400000005</v>
       </c>
       <c r="H4" s="3">
-        <v>0.45138299999999998</v>
+        <v>14.956932</v>
       </c>
       <c r="I4" s="3">
-        <v>880.40438800000004</v>
-      </c>
-      <c r="J4" s="3">
-        <v>60661.562692599997</v>
+        <v>1001.789091</v>
+      </c>
+      <c r="J4">
+        <v>67287.171445999993</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B5" s="3">
-        <v>1840.9681189999999</v>
+        <v>2067.8755080000001</v>
       </c>
       <c r="C5" s="3">
-        <v>45456.184500000003</v>
+        <v>52521.491793310001</v>
       </c>
       <c r="D5" s="3">
-        <v>11573.872600000001</v>
+        <v>11079.95528545</v>
       </c>
       <c r="E5" s="3">
-        <v>2337.5677519999999</v>
+        <v>330.69636932999998</v>
       </c>
       <c r="F5" s="3">
-        <v>4196.5621179999998</v>
+        <v>6270.8007900000002</v>
       </c>
       <c r="G5" s="3">
-        <v>865.27033400000005</v>
+        <v>818.29880000000003</v>
       </c>
       <c r="H5" s="3">
-        <v>14.956932</v>
+        <v>53.659514000000001</v>
       </c>
       <c r="I5" s="3">
-        <v>1001.789091</v>
-      </c>
-      <c r="J5" s="3">
-        <v>67287.171445999993</v>
+        <v>1048.709004</v>
+      </c>
+      <c r="J5">
+        <v>74191.487064090004</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B6" s="3">
-        <v>2067.8755080000001</v>
+        <v>4785.6158029999997</v>
       </c>
       <c r="C6" s="3">
-        <v>52521.491793310001</v>
+        <v>49081.768022420001</v>
       </c>
       <c r="D6" s="3">
-        <v>11079.95528545</v>
+        <v>12515.54816984</v>
       </c>
       <c r="E6" s="3">
-        <v>330.69636932999998</v>
+        <v>490.36968356</v>
       </c>
       <c r="F6" s="3">
-        <v>6270.8007900000002</v>
+        <v>5892.2253419999997</v>
       </c>
       <c r="G6" s="3">
-        <v>818.29880000000003</v>
+        <v>692.51193699999999</v>
       </c>
       <c r="H6" s="3">
-        <v>53.659514000000001</v>
+        <v>77.097960540000003</v>
       </c>
       <c r="I6" s="3">
-        <v>1048.709004</v>
-      </c>
-      <c r="J6" s="3">
-        <v>74191.487064090004</v>
+        <v>968.95108000000005</v>
+      </c>
+      <c r="J6">
+        <v>74504.087998360003</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B7" s="3">
-        <v>4785.6158029999997</v>
+        <v>5168.0430459999998</v>
       </c>
       <c r="C7" s="3">
-        <v>49081.768022420001</v>
+        <v>50998.937719540001</v>
       </c>
       <c r="D7" s="3">
-        <v>12515.54816984</v>
+        <v>18695.122864569999</v>
       </c>
       <c r="E7" s="3">
-        <v>490.36968356</v>
+        <v>723.41348088999996</v>
       </c>
       <c r="F7" s="3">
-        <v>5892.2253419999997</v>
+        <v>6279.7224081900004</v>
       </c>
       <c r="G7" s="3">
-        <v>692.51193699999999</v>
+        <v>687.25291800000002</v>
       </c>
       <c r="H7" s="3">
-        <v>77.097960540000003</v>
+        <v>240.98925494</v>
       </c>
       <c r="I7" s="3">
-        <v>968.95108000000005</v>
-      </c>
-      <c r="J7" s="3">
-        <v>74504.087998360003</v>
+        <v>959.68696</v>
+      </c>
+      <c r="J7">
+        <v>83753.16865213</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>5168.0430459999998</v>
+        <v>8215.6570565500006</v>
       </c>
       <c r="C8" s="3">
-        <v>50998.937719540001</v>
+        <v>45561.853443369997</v>
       </c>
       <c r="D8" s="3">
-        <v>18695.122864569999</v>
+        <v>23955.577156160001</v>
       </c>
       <c r="E8" s="3">
-        <v>723.41348088999996</v>
+        <v>2125.7733576300002</v>
       </c>
       <c r="F8" s="3">
-        <v>6279.7224081900004</v>
+        <v>7218.3200362699999</v>
       </c>
       <c r="G8" s="3">
-        <v>687.25291800000002</v>
+        <v>775.02653699999996</v>
       </c>
       <c r="H8" s="3">
-        <v>240.98925494</v>
+        <v>443.61609671000002</v>
       </c>
       <c r="I8" s="3">
-        <v>959.68696</v>
-      </c>
-      <c r="J8" s="3">
-        <v>83753.16865213</v>
+        <v>990.02512000000002</v>
+      </c>
+      <c r="J8">
+        <v>89285.848803689994</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B9" s="3">
-        <v>8215.6570565500006</v>
+        <v>508.65342399999997</v>
       </c>
       <c r="C9" s="3">
-        <v>45561.853443369997</v>
+        <v>1828.49680253</v>
       </c>
       <c r="D9" s="3">
-        <v>23955.577156160001</v>
+        <v>503.15373920000002</v>
       </c>
       <c r="E9" s="3">
-        <v>2125.7733576300002</v>
+        <v>25.635623120000002</v>
       </c>
       <c r="F9" s="3">
-        <v>7218.3200362699999</v>
+        <v>289.79490199999998</v>
       </c>
       <c r="G9" s="3">
-        <v>775.02653699999996</v>
+        <v>12.069606</v>
       </c>
       <c r="H9" s="3">
-        <v>443.61609671000002</v>
+        <v>29.516647840000001</v>
       </c>
       <c r="I9" s="3">
-        <v>990.02512000000002</v>
-      </c>
-      <c r="J9" s="3">
-        <v>89285.848803689994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B3/$J3</f>
-        <v>2.1445647146152165E-2</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" ref="C13:J13" si="0">C3/$J3</f>
-        <v>0.6667898483421093</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.17912336417142949</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>4.3568874519362255E-2</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>6.4747448134036406E-2</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5733575892467284E-2</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="0"/>
-        <v>8.5912417944431566E-3</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B14" s="4">
-        <f t="shared" ref="B14:J19" si="1">B4/$J4</f>
-        <v>1.8315305486443285E-2</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" si="1"/>
-        <v>0.65723163034280885</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="1"/>
-        <v>0.1794027877116918</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="1"/>
-        <v>4.9328547356480006E-2</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="1"/>
-        <v>6.4229235764071357E-2</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="1"/>
-        <v>1.6971671059927879E-2</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="1"/>
-        <v>7.4410051433617857E-6</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="1"/>
-        <v>1.4513381273433615E-2</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B15" s="4">
-        <f t="shared" si="1"/>
-        <v>2.7359867853524397E-2</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" si="1"/>
-        <v>0.67555499099081584</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="1"/>
-        <v>0.17200712039572635</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="1"/>
-        <v>3.4740169660363404E-2</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" si="1"/>
-        <v>6.2367937718527354E-2</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="1"/>
-        <v>1.2859365543317658E-2</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="1"/>
-        <v>2.222850459987517E-4</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="1"/>
-        <v>1.4888262791726448E-2</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B16" s="4">
-        <f t="shared" si="1"/>
-        <v>2.7872139915643888E-2</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" si="1"/>
-        <v>0.70791803577059365</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="1"/>
-        <v>0.1493426769553578</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="1"/>
-        <v>4.4573357728270001E-3</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="1"/>
-        <v>8.4521837183058418E-2</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="1"/>
-        <v>1.1029551130214118E-2</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="1"/>
-        <v>7.2325702211153227E-4</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="1"/>
-        <v>1.41351662501936E-2</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B17" s="4">
-        <f t="shared" si="1"/>
-        <v>6.4232929112632606E-2</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" si="1"/>
-        <v>0.65877952929912242</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="1"/>
-        <v>0.1679847174307468</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="1"/>
-        <v>6.5817822448990199E-3</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="1"/>
-        <v>7.9085933407166867E-2</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="1"/>
-        <v>9.2949522047064536E-3</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="1"/>
-        <v>1.0348151707017352E-3</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="1"/>
-        <v>1.3005341130024016E-2</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B18" s="4">
-        <f t="shared" si="1"/>
-        <v>6.1705642057144627E-2</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" si="1"/>
-        <v>0.60891950167718223</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="1"/>
-        <v>0.22321690230277094</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" si="1"/>
-        <v>8.6374461113788818E-3</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="1"/>
-        <v>7.4978923296298419E-2</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="1"/>
-        <v>8.2056945314453109E-3</v>
-      </c>
-      <c r="H18" s="4">
-        <f t="shared" si="1"/>
-        <v>2.8773747766004218E-3</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="1"/>
-        <v>1.1458515247179168E-2</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B19" s="4">
-        <f t="shared" si="1"/>
-        <v>9.2015220403106751E-2</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" si="1"/>
-        <v>0.51029198975915457</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="1"/>
-        <v>0.26830205992475226</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="1"/>
-        <v>2.3808625735348851E-2</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="1"/>
-        <v>8.0845062604945325E-2</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="1"/>
-        <v>8.6802841366723921E-3</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="1"/>
-        <v>4.9684927976141532E-3</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="1"/>
-        <v>1.1088264638405771E-2</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>37.649270000000001</v>
+      </c>
+      <c r="J9">
+        <v>3234.97001469</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B13:I19">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1E05BB5F-E97A-4BF9-A840-1092062A82E1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1E05BB5F-E97A-4BF9-A840-1092062A82E1}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B13:I19</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>